--- a/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_KAC_2020.xlsx
+++ b/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_KAC_2020.xlsx
@@ -1480,10 +1480,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-178.8139</v>
+        <v>-152.0046</v>
       </c>
       <c r="B2" t="n">
-        <v>-151.467206248</v>
+        <v>-151.9461</v>
       </c>
       <c r="C2" t="s">
         <v>124</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>44.0232</v>
+        <v>59.2679</v>
       </c>
       <c r="B3" t="n">
-        <v>59.5905704784</v>
+        <v>59.3039</v>
       </c>
       <c r="C3" t="s">
         <v>125</v>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-123.933</v>
+        <v>-150.7751</v>
       </c>
       <c r="B4" t="n">
-        <v>-151.3903019512</v>
+        <v>-150.834</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>81.0469</v>
+        <v>59.8943</v>
       </c>
       <c r="B5" t="n">
-        <v>59.6273920091</v>
+        <v>59.8581</v>
       </c>
       <c r="C5" t="s">
         <v>124</v>

--- a/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_KAC_2020.xlsx
+++ b/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_KAC_2020.xlsx
@@ -1480,10 +1480,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-152.0046</v>
+        <v>-152.5562</v>
       </c>
       <c r="B2" t="n">
-        <v>-151.9461</v>
+        <v>-152.3113</v>
       </c>
       <c r="C2" t="s">
         <v>124</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>59.2679</v>
+        <v>58.885</v>
       </c>
       <c r="B3" t="n">
-        <v>59.3039</v>
+        <v>59.0341</v>
       </c>
       <c r="C3" t="s">
         <v>125</v>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-150.7751</v>
+        <v>-150.2082</v>
       </c>
       <c r="B4" t="n">
-        <v>-150.834</v>
+        <v>-150.4509</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>59.8943</v>
+        <v>60.3313</v>
       </c>
       <c r="B5" t="n">
-        <v>59.8581</v>
+        <v>60.18</v>
       </c>
       <c r="C5" t="s">
         <v>124</v>
